--- a/box_data.xlsx
+++ b/box_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP ProBook 455 G10\Desktop\project_offline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP ProBook 455 G10\Desktop\project\box-print-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D19BA9-AC81-46CA-8B47-C46D335391CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA78FCE-5749-4967-A2B6-12B563CC65E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="44">
   <si>
     <t>brand</t>
   </si>
@@ -43,13 +43,7 @@
     <t>desker</t>
   </si>
   <si>
-    <t>DSABCA0101</t>
-  </si>
-  <si>
     <t>KOREA</t>
-  </si>
-  <si>
-    <t>SLFF0165B</t>
   </si>
   <si>
     <t>PANEL</t>
@@ -149,6 +143,27 @@
   <si>
     <t>CHINA</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSAAPA06001G</t>
+  </si>
+  <si>
+    <t>HSKC0321SHN</t>
+  </si>
+  <si>
+    <t>HSOC0140SAMN</t>
+  </si>
+  <si>
+    <t>HBA40H15EALN</t>
+  </si>
+  <si>
+    <t>HBA50G04EAEN</t>
+  </si>
+  <si>
+    <t>DSBC0483BSAN</t>
+  </si>
+  <si>
+    <t>SLFN0000LMR2</t>
   </si>
 </sst>
 </file>
@@ -1085,15 +1100,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
@@ -1104,13 +1119,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1124,370 +1139,370 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
         <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1495,22 +1510,22 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1518,22 +1533,22 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1541,22 +1556,22 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1564,22 +1579,22 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1587,22 +1602,22 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
         <v>10</v>
       </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1610,22 +1625,22 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
         <v>10</v>
       </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1633,22 +1648,22 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1656,22 +1671,22 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1679,137 +1694,137 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
         <v>24</v>
       </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
